--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alena\Desktop\TC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74688DA5-A2D4-4536-AA52-3B2794D2F2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Идентификатор</t>
   </si>
@@ -40,9 +49,6 @@
     <t>Логин в систему</t>
   </si>
   <si>
-    <t>Логин в систему через email</t>
-  </si>
-  <si>
     <t>1. Открыть сайт</t>
   </si>
   <si>
@@ -55,12 +61,6 @@
     <t>2. Отображение ячейки для входа чере email</t>
   </si>
   <si>
-    <t>3. Ввести верный email</t>
-  </si>
-  <si>
-    <t>3. email отображается в поле "адрес электронной почты или ID"</t>
-  </si>
-  <si>
     <t>4. Ввести верный пароль</t>
   </si>
   <si>
@@ -76,12 +76,6 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>Логин в систему через незарегестрированный email</t>
-  </si>
-  <si>
-    <t>3. Ввести незарегестрированный email</t>
-  </si>
-  <si>
     <t>4. Ввести пароль</t>
   </si>
   <si>
@@ -91,18 +85,9 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>Логин в систему через email c ошибочным домином</t>
-  </si>
-  <si>
-    <t>3. Ввести email с неверным домином</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
-    <t>Логин в систему через email с неверным паролем</t>
-  </si>
-  <si>
     <t>3. Email отображается в поле "Email"</t>
   </si>
   <si>
@@ -167,21 +152,75 @@
   </si>
   <si>
     <t>10. Войти в систему</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>Логин в систему через зарегистрированный email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Поле "Пароль" пустое </t>
+  </si>
+  <si>
+    <t>4. Оставить пустым поле "Пароль"</t>
+  </si>
+  <si>
+    <t>Логин в систему через зарегистрированный email с неверным паролем</t>
+  </si>
+  <si>
+    <t>Логин в систему через зарегистрированный email с пустым паролем</t>
+  </si>
+  <si>
+    <t>Логин в систему через незарегистрированный email</t>
+  </si>
+  <si>
+    <t>3. Ввести незарегистрированный email</t>
+  </si>
+  <si>
+    <t>3. Ввести зарегистрированный email</t>
+  </si>
+  <si>
+    <t>3. Email отображается в поле "адрес электронной почты или ID"</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Логин в систему через пустой email</t>
+  </si>
+  <si>
+    <t>3. Оставить пустым поле "Адрес электронной почты или ID"</t>
+  </si>
+  <si>
+    <t>3. Поле "адрес электронной почты или ID" пустое</t>
+  </si>
+  <si>
+    <t>Логин в систему через пустой email и пустой пароль</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>Логин в систему через зарегистрированный email c ошибочным доменом</t>
+  </si>
+  <si>
+    <t>3. Ввести email с неверным доменом</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -191,7 +230,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -207,36 +246,32 @@
     </fill>
   </fills>
   <borders count="14">
-    <border/>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -246,14 +281,31 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -268,8 +320,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -279,11 +333,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -292,30 +351,42 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -324,91 +395,68 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -598,29 +646,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A310D99-5D4D-4B63-AB56-908F02CD2E93}">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="61" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.25"/>
-    <col customWidth="1" min="2" max="2" width="9.38"/>
-    <col customWidth="1" min="3" max="3" width="10.25"/>
-    <col customWidth="1" min="4" max="4" width="13.63"/>
-    <col customWidth="1" min="5" max="5" width="43.25"/>
-    <col customWidth="1" min="6" max="6" width="60.0"/>
-    <col customWidth="1" min="7" max="7" width="70.63"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,491 +693,657 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="10" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="G6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G30" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="3" t="s">
+    <row r="32" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="10" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="G36" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="G39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="10" t="s">
+    </row>
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="G41" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G42" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9" t="s">
+    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G43" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
+    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G44" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
+    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G45" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="16" t="s">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G46" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-    </row>
+    <row r="47" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>